--- a/data/output/FV2410_FV2404/UTILMD/55126.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55126.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="372">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4323" uniqueCount="372">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1234,6 +1234,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U190" totalsRowShown="0">
+  <autoFilter ref="A1:U190"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,7 +1553,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10748,5 +10781,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55126.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55126.xlsx
@@ -2211,7 +2211,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4745,7 +4745,7 @@
         <v>352</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4907,7 +4907,7 @@
         <v>352</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5311,7 +5311,7 @@
         <v>352</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5619,7 +5619,7 @@
         <v>354</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6105,7 +6105,7 @@
         <v>358</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6621,7 +6621,7 @@
         <v>360</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6821,7 +6821,7 @@
         <v>360</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7021,7 +7021,7 @@
         <v>361</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7329,7 +7329,7 @@
         <v>362</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8087,7 +8087,7 @@
         <v>363</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8299,7 +8299,7 @@
         <v>364</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8607,7 +8607,7 @@
         <v>365</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8873,7 +8873,7 @@
         <v>366</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9131,7 +9131,7 @@
         <v>367</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9855,7 +9855,7 @@
         <v>370</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11237,7 +11237,7 @@
         <v>372</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N188" s="2"/>
